--- a/TrackAmplifier3.X/doc/Baudrate calc.xlsx
+++ b/TrackAmplifier3.X/doc/Baudrate calc.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Localdata\GIT_REPO\Siebwalde\TrackAmplifier2.X\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-REPOS\Siebwalde\TrackAmplifier3.X\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{001DFA25-5864-401F-9056-389E0B49A1E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="CRC" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Fosc</t>
   </si>
@@ -126,11 +128,26 @@
   <si>
     <t>delta mV</t>
   </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>Lookup</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>HW @2,98</t>
+  </si>
+  <si>
+    <t>HW @3,23</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -341,8 +358,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -357,8 +374,1381 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CRC!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lookup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CRC!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6360-40E6-BD08-05100B594FBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CRC!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW @2,98</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CRC!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>39.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.039999999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6360-40E6-BD08-05100B594FBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CRC!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW @3,23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CRC!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>39.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.039999999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6360-40E6-BD08-05100B594FBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2088672080"/>
+        <c:axId val="2084574528"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CRC!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>bytes</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CRC!$A$3:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-6360-40E6-BD08-05100B594FBE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2088672080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Bytes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> to calculate</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2084574528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2084574528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>CRC</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> time</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088672080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5722AEE-799D-45BF-AE03-9413AF02DE8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -653,7 +2043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4027,7 +5417,301 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F0C607-2732-46DF-9DB7-EA90AC20C8B5}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>$A3*7.36</f>
+        <v>7.36</v>
+      </c>
+      <c r="C3">
+        <f>($A3*2.98)+36.28</f>
+        <v>39.26</v>
+      </c>
+      <c r="D3">
+        <f>($A3*3.23)+36.28</f>
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B32" si="0">$A4*7.36</f>
+        <v>14.72</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C32" si="1">($A4*2.98)+36.28</f>
+        <v>42.24</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D32" si="2">($A4*3.23)+36.28</f>
+        <v>42.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>22.080000000000002</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>45.22</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>45.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>29.44</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>48.2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>36.800000000000004</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>51.18</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>52.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>44.160000000000004</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>54.16</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>55.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>51.52</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>57.14</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>58.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>58.88</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>60.120000000000005</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>62.120000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>66.240000000000009</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>63.1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>65.349999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>73.600000000000009</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>66.08</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>68.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>80.960000000000008</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>69.06</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>71.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>88.320000000000007</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>72.039999999999992</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>75.039999999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>95.68</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>75.02000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>78.27000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>103.04</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>110.4</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>80.98</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>84.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4121,11 +5805,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -4387,7 +6071,7 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20">
-        <f>S4*10</f>
+        <f t="shared" ref="D8:D55" si="1">S4*10</f>
         <v>1000</v>
       </c>
       <c r="E8" s="20">
@@ -4395,19 +6079,19 @@
         <v>8660</v>
       </c>
       <c r="F8" s="21">
-        <f t="shared" ref="F8:F55" si="1">(5/($D8+$E8))*$D8</f>
+        <f t="shared" ref="F8:F55" si="2">(5/($D8+$E8))*$D8</f>
         <v>0.51759834368530022</v>
       </c>
       <c r="G8" s="20">
-        <f t="shared" ref="G8:G55" si="2">ROUND(($F8/$G$3),0)</f>
+        <f t="shared" ref="G8:G55" si="3">ROUND(($F8/$G$3),0)</f>
         <v>106</v>
       </c>
       <c r="H8" s="20">
-        <f t="shared" ref="H8:H55" si="3">G8-G7</f>
+        <f t="shared" ref="H8:H55" si="4">G8-G7</f>
         <v>9</v>
       </c>
       <c r="I8" s="21">
-        <f t="shared" ref="I8:I55" si="4">(F8-F7)*1000</f>
+        <f t="shared" ref="I8:I55" si="5">(F8-F7)*1000</f>
         <v>43.138520923177325</v>
       </c>
       <c r="J8" s="19">
@@ -4440,7 +6124,7 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="20">
-        <f>S5*10</f>
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="E9" s="20">
@@ -4448,19 +6132,19 @@
         <v>8250</v>
       </c>
       <c r="F9" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56451612903225812</v>
       </c>
       <c r="G9" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="H9" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.917785346957899</v>
       </c>
       <c r="J9" s="19">
@@ -4493,7 +6177,7 @@
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20">
-        <f>S6*10</f>
+        <f t="shared" si="1"/>
         <v>1100</v>
       </c>
       <c r="E10" s="20">
@@ -4501,19 +6185,19 @@
         <v>7870</v>
       </c>
       <c r="F10" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61315496098104794</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="H10" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I10" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.638831948789814</v>
       </c>
       <c r="J10" s="19">
@@ -4544,7 +6228,7 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20">
-        <f>S7*10</f>
+        <f t="shared" si="1"/>
         <v>1150</v>
       </c>
       <c r="E11" s="20">
@@ -4552,19 +6236,19 @@
         <v>7500</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66473988439306364</v>
       </c>
       <c r="G11" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I11" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.584923412015705</v>
       </c>
       <c r="J11" s="19">
@@ -4595,7 +6279,7 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20">
-        <f>S8*10</f>
+        <f t="shared" si="1"/>
         <v>1210</v>
       </c>
       <c r="E12" s="20">
@@ -4603,19 +6287,19 @@
         <v>7150</v>
       </c>
       <c r="F12" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72368421052631571</v>
       </c>
       <c r="G12" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="I12" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.944326133252069</v>
       </c>
       <c r="J12" s="19">
@@ -4646,7 +6330,7 @@
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20">
-        <f>S9*10</f>
+        <f t="shared" si="1"/>
         <v>1270</v>
       </c>
       <c r="E13" s="20">
@@ -4654,19 +6338,19 @@
         <v>6810</v>
       </c>
       <c r="F13" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78589108910891092</v>
       </c>
       <c r="G13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="I13" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.206878582595216</v>
       </c>
       <c r="J13" s="19">
@@ -4697,7 +6381,7 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20">
-        <f>S10*10</f>
+        <f t="shared" si="1"/>
         <v>1330</v>
       </c>
       <c r="E14" s="20">
@@ -4705,19 +6389,19 @@
         <v>6490</v>
       </c>
       <c r="F14" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85038363171355502</v>
       </c>
       <c r="G14" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>174</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="I14" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.4925426046441</v>
       </c>
       <c r="J14" s="19">
@@ -4748,7 +6432,7 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20">
-        <f>S11*10</f>
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
       <c r="E15" s="20">
@@ -4756,19 +6440,19 @@
         <v>6190</v>
       </c>
       <c r="F15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92226613965744408</v>
       </c>
       <c r="G15" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>189</v>
       </c>
       <c r="H15" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I15" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71.882507943889067</v>
       </c>
       <c r="J15" s="19">
@@ -4799,7 +6483,7 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20">
-        <f>S12*10</f>
+        <f t="shared" si="1"/>
         <v>1470</v>
       </c>
       <c r="E16" s="20">
@@ -4807,19 +6491,19 @@
         <v>5900</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99728629579375838</v>
       </c>
       <c r="G16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.020156136314299</v>
       </c>
       <c r="J16" s="19">
@@ -4848,7 +6532,7 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20">
-        <f>S13*10</f>
+        <f t="shared" si="1"/>
         <v>1540</v>
       </c>
       <c r="E17" s="20">
@@ -4856,11 +6540,11 @@
         <v>5620</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0754189944134078</v>
       </c>
       <c r="G17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="H17" s="20">
@@ -4868,7 +6552,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78.132698619649446</v>
       </c>
       <c r="J17" s="19">
@@ -4897,7 +6581,7 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20">
-        <f>S14*10</f>
+        <f t="shared" si="1"/>
         <v>1620</v>
       </c>
       <c r="E18" s="20">
@@ -4905,19 +6589,19 @@
         <v>5360</v>
       </c>
       <c r="F18" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1604584527220629</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="H18" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I18" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85.039458308655114</v>
       </c>
       <c r="J18" s="19">
@@ -4946,7 +6630,7 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20">
-        <f>S15*10</f>
+        <f t="shared" si="1"/>
         <v>1690</v>
       </c>
       <c r="E19" s="20">
@@ -4954,19 +6638,19 @@
         <v>5110</v>
       </c>
       <c r="F19" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2426470588235294</v>
       </c>
       <c r="G19" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="I19" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82.188606101466505</v>
       </c>
       <c r="J19" s="19">
@@ -4995,7 +6679,7 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20">
-        <f>S16*10</f>
+        <f t="shared" si="1"/>
         <v>1780</v>
       </c>
       <c r="E20" s="20">
@@ -5003,19 +6687,19 @@
         <v>4870</v>
       </c>
       <c r="F20" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3383458646616542</v>
       </c>
       <c r="G20" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>274</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I20" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95.698805838124741</v>
       </c>
       <c r="J20" s="19">
@@ -5044,7 +6728,7 @@
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20">
-        <f>S17*10</f>
+        <f t="shared" si="1"/>
         <v>1870</v>
       </c>
       <c r="E21" s="20">
@@ -5052,19 +6736,19 @@
         <v>4640</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4362519201228878</v>
       </c>
       <c r="G21" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>294</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I21" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97.906055461233649</v>
       </c>
       <c r="J21" s="19">
@@ -5093,7 +6777,7 @@
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20">
-        <f>S18*10</f>
+        <f t="shared" si="1"/>
         <v>1960</v>
       </c>
       <c r="E22" s="20">
@@ -5101,19 +6785,19 @@
         <v>4420</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5360501567398119</v>
       </c>
       <c r="G22" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>315</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="I22" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99.7982366169241</v>
       </c>
       <c r="J22" s="19">
@@ -5142,7 +6826,7 @@
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20">
-        <f>S19*10</f>
+        <f t="shared" si="1"/>
         <v>2050</v>
       </c>
       <c r="E23" s="20">
@@ -5150,19 +6834,19 @@
         <v>4220</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.634768740031898</v>
       </c>
       <c r="G23" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>335</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I23" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98.718583292086052</v>
       </c>
       <c r="J23" s="19">
@@ -5191,7 +6875,7 @@
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20">
-        <f>S20*10</f>
+        <f t="shared" si="1"/>
         <v>2150</v>
       </c>
       <c r="E24" s="20">
@@ -5199,19 +6883,19 @@
         <v>4020</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7423014586709886</v>
       </c>
       <c r="G24" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>357</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107.53271863909065</v>
       </c>
       <c r="J24" s="19">
@@ -5240,7 +6924,7 @@
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="20">
-        <f>S21*10</f>
+        <f t="shared" si="1"/>
         <v>2260</v>
       </c>
       <c r="E25" s="20">
@@ -5248,19 +6932,19 @@
         <v>3830</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8555008210180624</v>
       </c>
       <c r="G25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>380</v>
       </c>
       <c r="H25" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="I25" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>113.19936234707373</v>
       </c>
       <c r="J25" s="19">
@@ -5289,7 +6973,7 @@
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="20">
-        <f>S22*10</f>
+        <f t="shared" si="1"/>
         <v>2370</v>
       </c>
       <c r="E26" s="20">
@@ -5297,19 +6981,19 @@
         <v>3650</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9684385382059801</v>
       </c>
       <c r="G26" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>403</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="I26" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>112.93771718791778</v>
       </c>
       <c r="J26" s="19">
@@ -5338,7 +7022,7 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="20">
-        <f>S23*10</f>
+        <f t="shared" si="1"/>
         <v>2490</v>
       </c>
       <c r="E27" s="20">
@@ -5346,19 +7030,19 @@
         <v>3480</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0854271356783918</v>
       </c>
       <c r="G27" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>427</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I27" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>116.98859747241164</v>
       </c>
       <c r="J27" s="19">
@@ -5387,7 +7071,7 @@
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="20">
-        <f>S24*10</f>
+        <f t="shared" si="1"/>
         <v>2610</v>
       </c>
       <c r="E28" s="20">
@@ -5395,19 +7079,19 @@
         <v>3320</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2006745362563236</v>
       </c>
       <c r="G28" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>451</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I28" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115.24740057793181</v>
       </c>
       <c r="J28" s="19">
@@ -5434,7 +7118,7 @@
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="20">
-        <f>S25*10</f>
+        <f t="shared" si="1"/>
         <v>2740</v>
       </c>
       <c r="E29" s="20">
@@ -5442,19 +7126,19 @@
         <v>3160</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3220338983050848</v>
       </c>
       <c r="G29" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>476</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="I29" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.35936204876118</v>
       </c>
       <c r="J29" s="19">
@@ -5481,7 +7165,7 @@
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="20">
-        <f>S26*10</f>
+        <f t="shared" si="1"/>
         <v>2870</v>
       </c>
       <c r="E30" s="20">
@@ -5489,19 +7173,19 @@
         <v>3010</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4404761904761902</v>
       </c>
       <c r="G30" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I30" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>118.44229217110546</v>
       </c>
       <c r="J30" s="19">
@@ -5528,7 +7212,7 @@
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="20">
-        <f>S27*10</f>
+        <f t="shared" si="1"/>
         <v>3010</v>
       </c>
       <c r="E31" s="20">
@@ -5536,19 +7220,19 @@
         <v>2870</v>
       </c>
       <c r="F31" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5595238095238093</v>
       </c>
       <c r="G31" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>524</v>
       </c>
       <c r="H31" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I31" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>119.04761904761907</v>
       </c>
       <c r="J31" s="19">
@@ -5575,7 +7259,7 @@
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="20">
-        <f>S28*10</f>
+        <f t="shared" si="1"/>
         <v>3160</v>
       </c>
       <c r="E32" s="20">
@@ -5583,19 +7267,19 @@
         <v>2740</v>
       </c>
       <c r="F32" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6779661016949152</v>
       </c>
       <c r="G32" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>548</v>
       </c>
       <c r="H32" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I32" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>118.44229217110592</v>
       </c>
       <c r="J32" s="19">
@@ -5622,7 +7306,7 @@
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="20">
-        <f>S29*10</f>
+        <f t="shared" si="1"/>
         <v>3320</v>
       </c>
       <c r="E33" s="20">
@@ -5630,19 +7314,19 @@
         <v>2610</v>
       </c>
       <c r="F33" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.799325463743676</v>
       </c>
       <c r="G33" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>573</v>
       </c>
       <c r="H33" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="I33" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121.35936204876074</v>
       </c>
       <c r="J33" s="19">
@@ -5669,7 +7353,7 @@
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="20">
-        <f>S30*10</f>
+        <f t="shared" si="1"/>
         <v>3480</v>
       </c>
       <c r="E34" s="20">
@@ -5677,19 +7361,19 @@
         <v>2490</v>
       </c>
       <c r="F34" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9145728643216082</v>
       </c>
       <c r="G34" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>597</v>
       </c>
       <c r="H34" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115.24740057793225</v>
       </c>
       <c r="J34" s="19">
@@ -5716,7 +7400,7 @@
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="20">
-        <f>S31*10</f>
+        <f t="shared" si="1"/>
         <v>3650</v>
       </c>
       <c r="E35" s="20">
@@ -5724,19 +7408,19 @@
         <v>2370</v>
       </c>
       <c r="F35" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0315614617940199</v>
       </c>
       <c r="G35" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>621</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>116.98859747241164</v>
       </c>
       <c r="J35" s="19">
@@ -5763,7 +7447,7 @@
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="20">
-        <f>S32*10</f>
+        <f t="shared" si="1"/>
         <v>3830</v>
       </c>
       <c r="E36" s="20">
@@ -5771,19 +7455,19 @@
         <v>2260</v>
       </c>
       <c r="F36" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1444991789819374</v>
       </c>
       <c r="G36" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>644</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="I36" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>112.93771718791757</v>
       </c>
       <c r="J36" s="19">
@@ -5810,7 +7494,7 @@
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="20">
-        <f>S33*10</f>
+        <f t="shared" si="1"/>
         <v>4020</v>
       </c>
       <c r="E37" s="20">
@@ -5818,19 +7502,19 @@
         <v>2150</v>
       </c>
       <c r="F37" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2576985413290114</v>
       </c>
       <c r="G37" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>667</v>
       </c>
       <c r="H37" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="I37" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>113.19936234707396</v>
       </c>
       <c r="J37" s="19">
@@ -5857,7 +7541,7 @@
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="20">
-        <f>S34*10</f>
+        <f t="shared" si="1"/>
         <v>4220</v>
       </c>
       <c r="E38" s="20">
@@ -5865,19 +7549,19 @@
         <v>2050</v>
       </c>
       <c r="F38" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3652312599681022</v>
       </c>
       <c r="G38" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>689</v>
       </c>
       <c r="H38" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="I38" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107.53271863909086</v>
       </c>
       <c r="J38" s="19">
@@ -5904,7 +7588,7 @@
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="20">
-        <f>S35*10</f>
+        <f t="shared" si="1"/>
         <v>4420</v>
       </c>
       <c r="E39" s="20">
@@ -5912,19 +7596,19 @@
         <v>1960</v>
       </c>
       <c r="F39" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4639498432601878</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>709</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I39" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98.718583292085611</v>
       </c>
       <c r="J39" s="19">
@@ -5951,7 +7635,7 @@
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="20">
-        <f>S36*10</f>
+        <f t="shared" si="1"/>
         <v>4640</v>
       </c>
       <c r="E40" s="20">
@@ -5959,19 +7643,19 @@
         <v>1870</v>
       </c>
       <c r="F40" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.563748079877112</v>
       </c>
       <c r="G40" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>730</v>
       </c>
       <c r="H40" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99.7982366169241</v>
       </c>
       <c r="J40" s="19">
@@ -5998,7 +7682,7 @@
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="20">
-        <f>S37*10</f>
+        <f t="shared" si="1"/>
         <v>4870</v>
       </c>
       <c r="E41" s="20">
@@ -6006,19 +7690,19 @@
         <v>1780</v>
       </c>
       <c r="F41" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6616541353383463</v>
       </c>
       <c r="G41" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="H41" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I41" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97.906055461234317</v>
       </c>
       <c r="J41" s="19">
@@ -6045,7 +7729,7 @@
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="20">
-        <f>S38*10</f>
+        <f t="shared" si="1"/>
         <v>5110</v>
       </c>
       <c r="E42" s="20">
@@ -6053,19 +7737,19 @@
         <v>1690</v>
       </c>
       <c r="F42" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7573529411764706</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>770</v>
       </c>
       <c r="H42" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I42" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95.698805838124287</v>
       </c>
       <c r="J42" s="19">
@@ -6092,7 +7776,7 @@
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="20">
-        <f>S39*10</f>
+        <f t="shared" si="1"/>
         <v>5360</v>
       </c>
       <c r="E43" s="20">
@@ -6100,19 +7784,19 @@
         <v>1620</v>
       </c>
       <c r="F43" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8395415472779368</v>
       </c>
       <c r="G43" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>786</v>
       </c>
       <c r="H43" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="I43" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82.188606101466277</v>
       </c>
       <c r="J43" s="19">
@@ -6139,7 +7823,7 @@
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="20">
-        <f>S40*10</f>
+        <f t="shared" si="1"/>
         <v>5620</v>
       </c>
       <c r="E44" s="20">
@@ -6147,19 +7831,19 @@
         <v>1540</v>
       </c>
       <c r="F44" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9245810055865924</v>
       </c>
       <c r="G44" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>804</v>
       </c>
       <c r="H44" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I44" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85.039458308655554</v>
       </c>
       <c r="J44" s="19">
@@ -6186,7 +7870,7 @@
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="20">
-        <f>S41*10</f>
+        <f t="shared" si="1"/>
         <v>5900</v>
       </c>
       <c r="E45" s="20">
@@ -6194,19 +7878,19 @@
         <v>1470</v>
       </c>
       <c r="F45" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0027137042062408</v>
       </c>
       <c r="G45" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>820</v>
       </c>
       <c r="H45" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="I45" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78.132698619648437</v>
       </c>
       <c r="J45" s="19">
@@ -6233,7 +7917,7 @@
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="20">
-        <f>S42*10</f>
+        <f t="shared" si="1"/>
         <v>6190</v>
       </c>
       <c r="E46" s="20">
@@ -6241,19 +7925,19 @@
         <v>1400</v>
       </c>
       <c r="F46" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0777338603425566</v>
       </c>
       <c r="G46" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>835</v>
       </c>
       <c r="H46" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I46" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.020156136315734</v>
       </c>
       <c r="J46" s="19">
@@ -6280,7 +7964,7 @@
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="20">
-        <f>S43*10</f>
+        <f t="shared" si="1"/>
         <v>6490</v>
       </c>
       <c r="E47" s="20">
@@ -6288,19 +7972,19 @@
         <v>1330</v>
       </c>
       <c r="F47" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1496163682864458</v>
       </c>
       <c r="G47" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>850</v>
       </c>
       <c r="H47" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I47" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71.882507943889181</v>
       </c>
       <c r="J47" s="19">
@@ -6327,7 +8011,7 @@
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="20">
-        <f>S44*10</f>
+        <f t="shared" si="1"/>
         <v>6810</v>
       </c>
       <c r="E48" s="20">
@@ -6335,19 +8019,19 @@
         <v>1270</v>
       </c>
       <c r="F48" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2141089108910892</v>
       </c>
       <c r="G48" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>863</v>
       </c>
       <c r="H48" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="I48" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.492542604643432</v>
       </c>
       <c r="J48" s="19">
@@ -6374,7 +8058,7 @@
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="20">
-        <f>S45*10</f>
+        <f t="shared" si="1"/>
         <v>7150</v>
       </c>
       <c r="E49" s="20">
@@ -6382,19 +8066,19 @@
         <v>1210</v>
       </c>
       <c r="F49" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2763157894736841</v>
       </c>
       <c r="G49" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>876</v>
       </c>
       <c r="H49" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="I49" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.206878582594882</v>
       </c>
       <c r="J49" s="19">
@@ -6421,7 +8105,7 @@
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="20">
-        <f>S46*10</f>
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
       <c r="E50" s="20">
@@ -6429,19 +8113,19 @@
         <v>1150</v>
       </c>
       <c r="F50" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3352601156069364</v>
       </c>
       <c r="G50" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>888</v>
       </c>
       <c r="H50" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="I50" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.944326133252289</v>
       </c>
       <c r="J50" s="19">
@@ -6468,7 +8152,7 @@
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="20">
-        <f>S47*10</f>
+        <f t="shared" si="1"/>
         <v>7870</v>
       </c>
       <c r="E51" s="20">
@@ -6476,19 +8160,19 @@
         <v>1100</v>
       </c>
       <c r="F51" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3868450390189517</v>
       </c>
       <c r="G51" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>898</v>
       </c>
       <c r="H51" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I51" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.584923412015371</v>
       </c>
       <c r="J51" s="19">
@@ -6515,7 +8199,7 @@
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="20">
-        <f>S48*10</f>
+        <f t="shared" si="1"/>
         <v>8250</v>
       </c>
       <c r="E52" s="20">
@@ -6523,19 +8207,19 @@
         <v>1050</v>
       </c>
       <c r="F52" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.435483870967742</v>
       </c>
       <c r="G52" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>908</v>
       </c>
       <c r="H52" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I52" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.638831948790262</v>
       </c>
       <c r="J52" s="19">
@@ -6560,7 +8244,7 @@
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="20">
-        <f>S49*10</f>
+        <f t="shared" si="1"/>
         <v>8660</v>
       </c>
       <c r="E53" s="20">
@@ -6568,19 +8252,19 @@
         <v>1000</v>
       </c>
       <c r="F53" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4824016563146998</v>
       </c>
       <c r="G53" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>918</v>
       </c>
       <c r="H53" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I53" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.917785346957785</v>
       </c>
       <c r="J53" s="19">
@@ -6605,7 +8289,7 @@
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="20">
-        <f>S50*10</f>
+        <f t="shared" si="1"/>
         <v>9090</v>
       </c>
       <c r="E54" s="20">
@@ -6613,11 +8297,11 @@
         <v>953</v>
       </c>
       <c r="F54" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5255401772378772</v>
       </c>
       <c r="G54" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>927</v>
       </c>
       <c r="H54" s="20">
@@ -6625,7 +8309,7 @@
         <v>9</v>
       </c>
       <c r="I54" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.138520923177381</v>
       </c>
       <c r="J54" s="19">
@@ -6650,7 +8334,7 @@
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="20">
-        <f>S51*10</f>
+        <f t="shared" si="1"/>
         <v>9530</v>
       </c>
       <c r="E55" s="20">
@@ -6658,19 +8342,19 @@
         <v>909</v>
       </c>
       <c r="F55" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5646134687230582</v>
       </c>
       <c r="G55" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>935</v>
       </c>
       <c r="H55" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I55" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.073291485181016</v>
       </c>
       <c r="J55" s="19">

--- a/TrackAmplifier3.X/doc/Baudrate calc.xlsx
+++ b/TrackAmplifier3.X/doc/Baudrate calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-REPOS\Siebwalde\TrackAmplifier3.X\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{001DFA25-5864-401F-9056-389E0B49A1E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E145D76F-9343-4733-AA34-63604F86E3A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Fosc</t>
   </si>
@@ -142,6 +142,27 @@
   </si>
   <si>
     <t>HW @3,23</t>
+  </si>
+  <si>
+    <t>INA326</t>
+  </si>
+  <si>
+    <t>INA180 A4</t>
+  </si>
+  <si>
+    <t>200V/V</t>
+  </si>
+  <si>
+    <t>Gain INA180</t>
+  </si>
+  <si>
+    <t>via compare gaat niet via Fvr met DAC laagste setting is 0,128V</t>
+  </si>
+  <si>
+    <t>Rechtstreeks inlezen op ADC kan, bij 10mA geeft dat 0,050V --&gt; 10 bits op de ADC.</t>
+  </si>
+  <si>
+    <t>ADC kan zelf filteren en via threshold trigger het signaal checken.</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +2068,7 @@
   <dimension ref="A1:D259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5420,8 +5441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F0C607-2732-46DF-9DB7-EA90AC20C8B5}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5471,15 +5492,15 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B32" si="0">$A4*7.36</f>
+        <f t="shared" ref="B4:B17" si="0">$A4*7.36</f>
         <v>14.72</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C32" si="1">($A4*2.98)+36.28</f>
+        <f t="shared" ref="C4:C17" si="1">($A4*2.98)+36.28</f>
         <v>42.24</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D32" si="2">($A4*3.23)+36.28</f>
+        <f t="shared" ref="D4:D17" si="2">($A4*3.23)+36.28</f>
         <v>42.74</v>
       </c>
     </row>
@@ -5712,10 +5733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C3:G11"/>
+  <dimension ref="C2:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5725,9 +5746,23 @@
     <col min="4" max="4" width="9.140625" style="7"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="7"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -5740,8 +5775,20 @@
       <c r="G3" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="7">
+        <v>4.0960000000000001</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -5754,8 +5801,20 @@
       <c r="G4" s="8">
         <v>5000</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
@@ -5768,8 +5827,20 @@
       <c r="G5" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -5777,8 +5848,16 @@
         <f>((D3-D4)*(D5/32))+ D4</f>
         <v>2.8159999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7">
+        <f>((L3-L4)*(L5/32))+ L4</f>
+        <v>0.128</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -5793,10 +5872,37 @@
         <f>G3*G5*G4+2.5</f>
         <v>2.875</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7">
+        <f>L6</f>
+        <v>0.128</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="7">
+        <f>O3*O5*O4</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
